--- a/src/analysis_examples/circadb/results_lomb/cosinor_10466779_pip5k1b_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10466779_pip5k1b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.28355649404152605, 0.43915955593486466]</t>
+          <t>[0.2832089353180612, 0.43950711465832953]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.544460724924647e-09</v>
+        <v>3.828475092504391e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>3.544460724924647e-09</v>
+        <v>3.828475092504391e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.081789662497386</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.42813512536100484, 0.5120793492362722]</t>
+          <t>[0.42807740119773097, 0.5121370733995461]</t>
         </is>
       </c>
       <c r="U2" t="n">
